--- a/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
+++ b/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
@@ -18,9 +18,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市永和區永福段08230000地號</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>邱若山</t>
+  </si>
+  <si>
+    <t>80年06月13日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-01</t>
+  </si>
+  <si>
+    <t>林淑芬</t>
+  </si>
+  <si>
+    <t>tmp3f851</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,34 +116,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市永和區永福段0823-0000 地號</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>邱若山</t>
-  </si>
-  <si>
-    <t>80年06月 13日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市永和區永福段02017-000 建號</t>
+    <t>新北市永和區永福段02017000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>第一次登. 記</t>
+    <t>第一次登.記</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -80,13 +134,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>toyota rav4 rod</t>
-  </si>
-  <si>
-    <t>林淑芬</t>
-  </si>
-  <si>
-    <t>100 年 03 月01曰</t>
+    <t>toyotarav4rod</t>
+  </si>
+  <si>
+    <t>100年03月01曰</t>
   </si>
   <si>
     <t>買賣</t>
@@ -116,13 +167,13 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>遠東國際商業銀行永和分 行</t>
+    <t>遠東國際商業銀行永和分行</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>1，527，000</t>
+    <t>1527000</t>
   </si>
 </sst>
 </file>
@@ -481,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,31 +560,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -551,25 +644,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -577,25 +670,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -613,22 +706,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -636,19 +729,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
@@ -669,13 +762,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -683,10 +776,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>3500000</v>
@@ -697,10 +790,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>650000</v>
@@ -711,10 +804,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2">
         <v>1527000</v>
@@ -725,10 +818,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>400000</v>
@@ -749,19 +842,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -769,16 +862,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>650000</v>
@@ -789,16 +882,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>3500000</v>
@@ -809,19 +902,19 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -829,16 +922,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
         <v>400000</v>

--- a/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
+++ b/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -62,10 +62,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市永和區永福段08230000地號</t>
-  </si>
-  <si>
-    <t>5分之1</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>新北市永和區永福段02017000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>邱若山</t>
@@ -74,81 +80,24 @@
     <t>80年06月13日</t>
   </si>
   <si>
-    <t>第一次登記</t>
+    <t>第一次登.記</t>
   </si>
   <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-01</t>
+    <t>toyotarav4rod</t>
   </si>
   <si>
     <t>林淑芬</t>
   </si>
   <si>
-    <t>tmp3f851</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市永和區永福段02017000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>第一次登.記</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>toyotarav4rod</t>
-  </si>
-  <si>
     <t>100年03月01曰</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -158,19 +107,13 @@
     <t>邱〇在</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>遠東國際商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
   </si>
   <si>
     <t>1527000</t>
@@ -532,13 +475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,51 +524,10 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1337</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -636,59 +538,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -698,52 +574,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
         <v>989000</v>
       </c>
     </row>
@@ -754,7 +607,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -762,68 +615,54 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3500000</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>3500000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>650000</v>
+        <v>1527000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>1527000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2">
         <v>400000</v>
       </c>
     </row>
@@ -834,7 +673,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,98 +681,78 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>650000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>650000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3500000</v>
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
         <v>400000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
+++ b/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -68,28 +68,49 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市永和區永福段08230000地號</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>邱若山</t>
+  </si>
+  <si>
+    <t>80年06月13日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-01</t>
+  </si>
+  <si>
+    <t>林淑芬</t>
+  </si>
+  <si>
+    <t>tmp3f851</t>
+  </si>
+  <si>
     <t>新北市永和區永福段02017000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>邱若山</t>
-  </si>
-  <si>
-    <t>80年06月13日</t>
-  </si>
-  <si>
     <t>第一次登.記</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>toyotarav4rod</t>
-  </si>
-  <si>
-    <t>林淑芬</t>
   </si>
   <si>
     <t>100年03月01曰</t>
@@ -475,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,6 +550,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -538,33 +612,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -574,29 +728,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1">
+        <v>989000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2">
         <v>989000</v>
       </c>
     </row>
@@ -607,7 +784,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -615,10 +792,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1">
         <v>3500000</v>
@@ -626,43 +803,57 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>650000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>1527000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1527000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
         <v>400000</v>
       </c>
     </row>
@@ -673,7 +864,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -681,13 +872,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -698,61 +889,81 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>3500000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3500000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
         <v>400000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
+++ b/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>第一次登.記</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>toyotarav4rod</t>
@@ -728,38 +731,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
-        <v>989000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -768,13 +792,34 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +837,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -806,7 +851,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -820,7 +865,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -834,10 +879,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>1527000</v>
@@ -848,10 +893,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>400000</v>
@@ -872,13 +917,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -892,13 +937,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -912,13 +957,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -932,19 +977,19 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -952,16 +997,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
         <v>400000</v>

--- a/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
+++ b/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -110,6 +110,9 @@
     <t>第一次登.記</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>買賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -697,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -742,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -783,7 +789,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -792,16 +798,16 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -837,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -851,7 +857,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -865,7 +871,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -879,10 +885,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>1527000</v>
@@ -893,10 +899,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
         <v>400000</v>
@@ -917,13 +923,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -937,13 +943,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -957,13 +963,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -977,19 +983,19 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -997,16 +1003,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F5" s="2">
         <v>400000</v>

--- a/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
+++ b/legislator/property/output/normal/林淑芬_2012-03-01_財產申報表_tmp3f851.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +128,9 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -137,16 +140,25 @@
     <t>邱〇在</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>遠東國際商業銀行永和分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>遠東國際商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>1527000</t>
+    <t>deposit</t>
   </si>
 </sst>
 </file>
@@ -835,29 +847,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -865,13 +898,34 @@
       <c r="D2" s="2">
         <v>3500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -879,33 +933,96 @@
       <c r="D3" s="2">
         <v>650000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1337</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>1527000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1337</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>400000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1337</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -915,41 +1032,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -957,19 +1095,40 @@
       <c r="F2" s="2">
         <v>650000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -977,45 +1136,108 @@
       <c r="F3" s="2">
         <v>3500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1527000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2">
         <v>400000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
